--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,14 +11,14 @@
     <sheet name="classroomTh" sheetId="2" r:id="rId2"/>
     <sheet name="registrationClass" sheetId="3" r:id="rId3"/>
     <sheet name="subject" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="date" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -83,7 +83,7 @@
     <t>214464-01</t>
   </si>
   <si>
-    <t>AnToanBaoMat1</t>
+    <t>An toàn và bảo mật hệ thống thông tin</t>
   </si>
   <si>
     <t>DH19DT</t>
@@ -92,7 +92,7 @@
     <t>214462-01</t>
   </si>
   <si>
-    <t>Ltw</t>
+    <t>Lập trình web</t>
   </si>
   <si>
     <t>214462-02</t>
@@ -104,13 +104,13 @@
     <t>214379-01</t>
   </si>
   <si>
-    <t>KiemThu</t>
+    <t>Đảm bảo chất lượng và kiểm thử phần mềm</t>
   </si>
   <si>
     <t>214361-20</t>
   </si>
   <si>
-    <t>GiaoTiepNM</t>
+    <t>Giao tiếp người máy</t>
   </si>
   <si>
     <t>214361-21</t>
@@ -122,7 +122,7 @@
     <t>214389-20</t>
   </si>
   <si>
-    <t>ToanToiRac</t>
+    <t>Toán rời rạc</t>
   </si>
   <si>
     <t>DH21DT</t>
@@ -137,19 +137,19 @@
     <t>214491-01</t>
   </si>
   <si>
-    <t>DataWarehouse</t>
+    <t>Data Warehouse</t>
   </si>
   <si>
     <t>214485-01</t>
   </si>
   <si>
-    <t>DataMining</t>
+    <t>Data Mining</t>
   </si>
   <si>
     <t>214201-20</t>
   </si>
   <si>
-    <t>NhapMonTinHoc</t>
+    <t>Nhập môn tin học</t>
   </si>
   <si>
     <t>214201-21</t>
@@ -164,13 +164,13 @@
     <t>214271-01</t>
   </si>
   <si>
-    <t>QuanTriMang</t>
+    <t>Quản trị mạng</t>
   </si>
   <si>
     <t>214241-01</t>
   </si>
   <si>
-    <t>MangCoBan</t>
+    <t>Mạng cơ bản</t>
   </si>
   <si>
     <t>DH20DT</t>
@@ -185,7 +185,7 @@
     <t>214321-20</t>
   </si>
   <si>
-    <t>LtCoBan</t>
+    <t>Lập trình cơ bản</t>
   </si>
   <si>
     <t>214321-21</t>
@@ -200,7 +200,7 @@
     <t>214483-01</t>
   </si>
   <si>
-    <t>TMDT</t>
+    <t>Thương mại điện tử</t>
   </si>
   <si>
     <t>214463-01</t>
@@ -218,25 +218,25 @@
     <t>214451-01</t>
   </si>
   <si>
-    <t>HeQuanTriCSDL</t>
+    <t>Hệ quản trị cơ sở dữ liệu</t>
   </si>
   <si>
     <t>214353-01</t>
   </si>
   <si>
-    <t>DoHoaMT</t>
+    <t>Đồ họa máy tính</t>
   </si>
   <si>
     <t>214372-01</t>
   </si>
   <si>
-    <t>DOTNET</t>
+    <t>Lập trình DOTNET</t>
   </si>
   <si>
     <t>214252-01</t>
   </si>
   <si>
-    <t>Ltm</t>
+    <t>Lập trình mạng</t>
   </si>
   <si>
     <t>214252-02</t>
@@ -248,7 +248,7 @@
     <t>214441-01</t>
   </si>
   <si>
-    <t>CauTrucDuLieu</t>
+    <t>Cấu trúc dữ liệu</t>
   </si>
   <si>
     <t>214441-02</t>
@@ -260,19 +260,16 @@
     <t>214383-01</t>
   </si>
   <si>
-    <t>QuanLiDuAn</t>
-  </si>
-  <si>
-    <t>Subject Id</t>
-  </si>
-  <si>
-    <t>subject name</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>Quản lý dự án phần mềm</t>
+  </si>
+  <si>
+    <t>Subject id</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Exam time</t>
@@ -281,9 +278,6 @@
     <t>Lesson time</t>
   </si>
   <si>
-    <t>AnToanBaoMat</t>
-  </si>
-  <si>
     <t>Exam date</t>
   </si>
   <si>
@@ -312,6 +306,24 @@
   </si>
   <si>
     <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-10-22</t>
+  </si>
+  <si>
+    <t>2022-10-23</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-25</t>
+  </si>
+  <si>
+    <t>2022-10-26</t>
   </si>
 </sst>
 </file>
@@ -319,10 +331,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -334,16 +346,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,15 +385,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,7 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +439,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,6 +474,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -455,27 +488,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -486,61 +498,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,121 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +697,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,21 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -735,6 +747,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,21 +789,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,130 +812,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1372,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1482,14 +1494,14 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="40.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
@@ -2429,12 +2441,13 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="5.55555555555556" customWidth="1"/>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
   </cols>
@@ -2444,19 +2457,19 @@
         <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2464,7 +2477,7 @@
         <v>214464</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2848,10 +2861,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2861,52 +2874,82 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="classroomLt" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="registrationClass" sheetId="3" r:id="rId3"/>
     <sheet name="subject" sheetId="4" r:id="rId4"/>
     <sheet name="date" sheetId="5" r:id="rId5"/>
+    <sheet name="academyYear" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -311,19 +312,10 @@
     <t>2022-10-21</t>
   </si>
   <si>
-    <t>2022-10-22</t>
-  </si>
-  <si>
-    <t>2022-10-23</t>
-  </si>
-  <si>
-    <t>2022-10-24</t>
-  </si>
-  <si>
-    <t>2022-10-25</t>
-  </si>
-  <si>
-    <t>2022-10-26</t>
+    <t>Academy year</t>
+  </si>
+  <si>
+    <t>semester</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1486,7 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -2861,10 +2853,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2927,29 +2919,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="B1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>101</v>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
